--- a/doc/backend/api/TRN-MiniBlog_API_Post_Delete_DetailedDesign-TuanNguyen.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API_Post_Delete_DetailedDesign-TuanNguyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890" tabRatio="898" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7890" tabRatio="898" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -3161,7 +3161,7 @@
               </a:effectLst>
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>Set code = 2004</a:t>
+            <a:t>Set code = 1504</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5025,7 +5025,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>128318</xdr:colOff>
+      <xdr:colOff>128317</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>163187</xdr:rowOff>
     </xdr:to>
@@ -5051,7 +5051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1608404" y="3190876"/>
-          <a:ext cx="7120989" cy="8545186"/>
+          <a:ext cx="7120988" cy="8545186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8700,7 +8700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -10143,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AT62" sqref="AT62"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15633,7 +15633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BB52" sqref="BB52"/>
     </sheetView>
   </sheetViews>
